--- a/RUDN/Importance/Varible_muatal_reg_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Southern Asia.xlsx
@@ -37,12 +37,12 @@
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
@@ -166,21 +169,18 @@
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
@@ -256,21 +256,21 @@
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
@@ -283,15 +283,15 @@
     <t>Country_code</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
@@ -301,6 +301,9 @@
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
@@ -310,15 +313,12 @@
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+    <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
@@ -367,15 +367,15 @@
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
@@ -421,30 +421,33 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
@@ -454,9 +457,6 @@
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
@@ -481,18 +481,18 @@
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
@@ -505,81 +505,81 @@
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
   </si>
   <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
     <t>Male population 00-04</t>
   </si>
   <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
@@ -595,6 +595,9 @@
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
@@ -622,33 +625,30 @@
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
@@ -664,27 +664,27 @@
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
@@ -907,12 +907,12 @@
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
@@ -934,12 +934,12 @@
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
@@ -967,18 +967,18 @@
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
@@ -1015,15 +1015,15 @@
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
@@ -1036,15 +1036,15 @@
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
     <t>Comprehensive correct knowledge of HIV/AIDS, ages 15-24, female (2 prevent ways and reject 3 misconceptions)</t>
   </si>
   <si>
@@ -1525,25 +1525,25 @@
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
     <t>Nurses and midwives (per 1,000 people)</t>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.992956930015329</v>
+        <v>1.989751801810201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.746060463534441</v>
+        <v>1.743656617380595</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.688191489667089</v>
+        <v>1.687123113598713</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.599348366378119</v>
+        <v>1.601271443301195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.51802561133401</v>
+        <v>1.512950825009224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.504076625842253</v>
+        <v>1.503034959175586</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.50153793951895</v>
+        <v>1.502110283841295</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.499134093365104</v>
+        <v>1.497760466991478</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.495689138440414</v>
+        <v>1.494315512066787</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.415766380273214</v>
+        <v>1.413823638186241</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.402561082980512</v>
+        <v>1.406784698882506</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.399881879479687</v>
+        <v>1.402561082980512</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.395573755162262</v>
+        <v>1.397638597371335</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.376585010245278</v>
+        <v>1.379622597657866</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.369423127436342</v>
+        <v>1.369140322006478</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.308160732390714</v>
+        <v>1.308847545577527</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.291066869421315</v>
+        <v>1.294680205859504</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.212477423070615</v>
+        <v>1.209043788425038</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.204229691512233</v>
+        <v>1.205041108356259</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.196036746627261</v>
+        <v>1.197479054319569</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.177701507839651</v>
+        <v>1.184525691094194</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.174052293391913</v>
+        <v>1.177701507839651</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.170992049417307</v>
+        <v>1.174052293391913</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.167043034535879</v>
+        <v>1.170933233121143</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.1653310385037</v>
+        <v>1.167043034535879</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.157807219150795</v>
+        <v>1.164873163045825</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.157056163766882</v>
+        <v>1.157807219150795</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.149364513605844</v>
+        <v>1.15134100933234</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.144844874741662</v>
+        <v>1.145064748780143</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.142801387141781</v>
+        <v>1.144844874741662</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.100932979271149</v>
+        <v>1.101807105145274</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.097247950938216</v>
+        <v>1.100244893497325</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.096423443208483</v>
+        <v>1.097247950938216</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.063565952478219</v>
+        <v>1.067739720782212</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.05839220445089</v>
+        <v>1.060111218110023</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.046047499586684</v>
+        <v>1.04700487554406</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.027550036317761</v>
+        <v>1.025711801023643</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.011645693830431</v>
+        <v>1.011397817553592</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9965513027365063</v>
+        <v>0.9934637743609671</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9934637743609671</v>
+        <v>0.9931350376712489</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9931350376712489</v>
+        <v>0.9928610621698564</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9928610621698564</v>
+        <v>0.9869847371498386</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9832509891726691</v>
+        <v>0.9844168005703779</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9736939233265174</v>
+        <v>0.9732254857656888</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9683505010302249</v>
+        <v>0.9686820660169624</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9558500451424463</v>
+        <v>0.957288344906343</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9514378052675589</v>
+        <v>0.9565346870720219</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9467695657068109</v>
+        <v>0.9498225354137981</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9425202068603671</v>
+        <v>0.9435218094244697</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9263635630607334</v>
+        <v>0.928414933031906</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9222327892872193</v>
+        <v>0.9263635630607334</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9211644132188437</v>
+        <v>0.9226698522242827</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9192889817189522</v>
+        <v>0.9216014761559066</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.918862185260398</v>
+        <v>0.9175312134030165</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9171198385339103</v>
+        <v>0.9141855506205276</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8280701315991652</v>
+        <v>0.8300733367273709</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.8188802158750512</v>
+        <v>0.8209813884915675</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8112016948386762</v>
+        <v>0.8188802158750512</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8102936570470338</v>
+        <v>0.8114090631519042</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.7026617590571609</v>
+        <v>0.7028281346492335</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.696530189796259</v>
+        <v>0.6956185451576069</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6756738318405309</v>
+        <v>0.6696743313514939</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.6440406773208915</v>
+        <v>0.6441820800358233</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6303083397378106</v>
+        <v>0.6306154978574692</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.6296393735881769</v>
+        <v>0.6292547582035621</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.6209760724390962</v>
+        <v>0.6246665269881597</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6190468267374214</v>
+        <v>0.6178191422421258</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.6154683237515699</v>
+        <v>0.6157785915710976</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.6148170531095589</v>
+        <v>0.6116294072556849</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.612542748300605</v>
+        <v>0.601402570923852</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5672539147471531</v>
+        <v>0.5704854216226167</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5667989810616387</v>
+        <v>0.5672539147471531</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5652534601128947</v>
+        <v>0.566184515940485</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5640751652123599</v>
+        <v>0.5652534601128947</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5592502963204073</v>
+        <v>0.5628816370133998</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5504743787698647</v>
+        <v>0.5505002330928281</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.546227292235856</v>
+        <v>0.5462735636038119</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5454454074156185</v>
+        <v>0.546227292235856</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.5453789557489981</v>
+        <v>0.5454454074156185</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5232250751346739</v>
+        <v>0.5222635366731356</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.522045005204604</v>
+        <v>0.5215642359738351</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.517981772246592</v>
+        <v>0.5157048332738869</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5157048332738869</v>
+        <v>0.5153166214889107</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5153166214889107</v>
+        <v>0.5134995006065888</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.513203642618423</v>
+        <v>0.5127437916505055</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5127437916505055</v>
+        <v>0.5076633211231154</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5076633211231154</v>
+        <v>0.5064600675423863</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5064600675423863</v>
+        <v>0.4978307638549948</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.4978307638549948</v>
+        <v>0.4924773747287725</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.4924773747287725</v>
+        <v>0.4920736066533755</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.4915237791480989</v>
+        <v>0.4907305548304906</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4900058556209719</v>
+        <v>0.487770840251087</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.4877526358356041</v>
+        <v>0.4836554224041594</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.4836554224041594</v>
+        <v>0.4808932241839596</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4808932241839596</v>
+        <v>0.4787252441068617</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4787252441068617</v>
+        <v>0.4755453258747226</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4722196571388355</v>
+        <v>0.4712272089290142</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4712272089290142</v>
+        <v>0.4710645782433722</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.465330358925709</v>
+        <v>0.4649987939389715</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4580628161300855</v>
+        <v>0.4590982893122979</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4543687991711511</v>
+        <v>0.4589052426473605</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4498112885028005</v>
+        <v>0.4543687991711511</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4488661668830514</v>
+        <v>0.4500075208418906</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4487330497191402</v>
+        <v>0.4488661668830514</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4427130639927606</v>
+        <v>0.4487330497191402</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4309928561687781</v>
+        <v>0.4430976793773762</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4302076555413008</v>
+        <v>0.4303319537636894</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4286242937340807</v>
+        <v>0.4302076555413008</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4255217757923431</v>
+        <v>0.4262590917644249</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4141828687183735</v>
+        <v>0.4195662488500824</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.413677453341905</v>
+        <v>0.4141828687183735</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.4125047185652038</v>
+        <v>0.413677453341905</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4123445623780864</v>
+        <v>0.4129443678983613</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.4122693963182178</v>
+        <v>0.4125047185652038</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4114724960837552</v>
+        <v>0.4118294524879764</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3923164673918336</v>
+        <v>0.3922601421884877</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3922601421884877</v>
+        <v>0.392116653736182</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.392116653736182</v>
+        <v>0.3919944098289487</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3919944098289487</v>
+        <v>0.3907920291158373</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3907920291158373</v>
+        <v>0.390301644720271</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.390301644720271</v>
+        <v>0.388811691460631</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.388811691460631</v>
+        <v>0.3886857724674082</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3677869677329872</v>
+        <v>0.3664842619897448</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3650784568488419</v>
+        <v>0.3655300332610443</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3610501262550272</v>
+        <v>0.3614550294192391</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3450157179247777</v>
+        <v>0.3455984685075284</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.3116559045830294</v>
+        <v>0.3118663157649713</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.3114824048041367</v>
+        <v>0.3116559045830294</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4341,7 +4341,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3090595125349167</v>
+        <v>0.3088846873600914</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.3022711443328234</v>
+        <v>0.3022421814226512</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3022421814226512</v>
+        <v>0.3018965189581977</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2991114940741419</v>
+        <v>0.2986480347692195</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2951391519342752</v>
+        <v>0.2955440550984871</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2929966866903777</v>
+        <v>0.2932057167907127</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2912467791080262</v>
+        <v>0.2910552410188045</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2910552410188045</v>
+        <v>0.2904412349181738</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2870447356057177</v>
+        <v>0.2861852829171239</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2862716273442218</v>
+        <v>0.286146150429867</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4525,7 +4525,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2772279183630448</v>
+        <v>0.2769933967870599</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4565,7 +4565,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.2507600812021262</v>
+        <v>0.2494625811214333</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4597,7 +4597,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.2250742188561388</v>
+        <v>0.2269412857470248</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4605,7 +4605,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2242818024392181</v>
+        <v>0.2232130241005474</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4621,7 +4621,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2232130241005474</v>
+        <v>0.2219324947261008</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.20317383099889</v>
+        <v>0.2032138951014539</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1956169887884365</v>
+        <v>0.195832868442781</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1949375182255815</v>
+        <v>0.1956169887884365</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1946673991641314</v>
+        <v>0.1949375182255815</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.186986729804546</v>
+        <v>0.1858723643746003</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.1668995316296369</v>
+        <v>0.1677182328559466</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.1660478891798982</v>
+        <v>0.1666112969784892</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.1655239803905735</v>
+        <v>0.1658801057466994</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.1593055732711983</v>
+        <v>0.1600178239834493</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.1427557732387204</v>
+        <v>0.1424650870235586</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5541,7 +5541,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.1309524041232031</v>
+        <v>0.1306519233539727</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.07900998637926948</v>
+        <v>0.07856826342906098</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.07677183424213352</v>
+        <v>0.07609834798006965</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.07609834798006965</v>
+        <v>0.07582519074931593</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.07565301692888715</v>
+        <v>0.0748829795525856</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.0748829795525856</v>
+        <v>0.0737167577660629</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.06787476245699331</v>
+        <v>0.06510847712680068</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.06065658726338663</v>
+        <v>0.06078479239159185</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.0351389485991187</v>
+        <v>0.03570862913405426</v>
       </c>
     </row>
     <row r="518" spans="1:2">
